--- a/data/trans_camb/P12A1_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12A1_3_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>1,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,36</t>
+          <t>5,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,42</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-11,47</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>-1,11</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-9,06</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 21,48</t>
+          <t>-6,89; 8,19</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,94; 28,67</t>
+          <t>-2,39; 11,89</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,16; 19,95</t>
+          <t>-7,89; 8,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-9,47; 18,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,71; 14,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,54; 4,12</t>
+          <t>-10,89; 5,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 13,46</t>
+          <t>-7,16; 8,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 14,41</t>
+          <t>-10,24; 9,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-21,7; 4,45</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-6,38; 4,59</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,01; 8,62</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-6,8; 6,29</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,62%</t>
+          <t>16,55%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>57,11%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-4,42%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-15,42%</t>
+          <t>-12,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>-6,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-13,54%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-3,79%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19,41%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-1,53%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-32,53; 57,22</t>
+          <t>-45,91; 144,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 73,11</t>
+          <t>-15,28; 196,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,1; 51,6</t>
+          <t>-54,14; 141,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,68; 30,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 23,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,34; 6,21</t>
+          <t>-43,75; 46,71</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,05; 22,87</t>
+          <t>-31,25; 65,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 24,97</t>
+          <t>-44,7; 70,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 7,61</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-34,67; 42,43</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-15,98; 81,31</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-39,14; 54,73</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,95</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-5,99</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-8,71</t>
+          <t>-0,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-8,51</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-12,73</t>
+          <t>-1,41</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,45</t>
+          <t>-1,5</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-7,77</t>
+          <t>-0,03</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-11,18</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,54</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-1,71</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 15,32</t>
+          <t>-5,33; 1,62</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,63; 9,58</t>
+          <t>-5,15; 1,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-22,7; 7,35</t>
+          <t>-4,38; 3,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,05; 11,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,81; 7,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,34; 2,18</t>
+          <t>-6,09; 2,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,52; 10,54</t>
+          <t>-6,16; 2,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 4,47</t>
+          <t>-5,06; 4,06</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-20,78; 0,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,63; 1,04</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,69; 0,87</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,41; 2,52</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,56%</t>
+          <t>-23,34%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-16,07%</t>
+          <t>-26,47%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-23,37%</t>
+          <t>-8,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-17,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-26,27%</t>
+          <t>-19,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-5,73%</t>
+          <t>-20,78%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-18,17%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-26,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-21,4%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-23,73%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-4,46%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,12; 49,94</t>
+          <t>-55,23; 29,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-47,45; 31,86</t>
+          <t>-55,74; 28,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-50,01; 26,51</t>
+          <t>-50,11; 73,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-34,47; 29,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-43,56; 18,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,49; 6,75</t>
+          <t>-60,31; 52,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-28,49; 29,15</t>
+          <t>-61,17; 50,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,03; 11,35</t>
+          <t>-51,29; 83,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-42,79; 1,77</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-48,4; 20,6</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-50,16; 17,38</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-39,2; 46,24</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,02</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-13,84</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-11,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-9,99</t>
+          <t>-1,84</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-8,38</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>-1,73</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-12,07</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,5</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-36,61; 22,27</t>
+          <t>-1,8; 3,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-32,85; 26,47</t>
+          <t>-1,21; 3,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-47,09; 14,83</t>
+          <t>-0,25; 5,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-30,61; 10,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-23,09; 18,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-31,31; 12,66</t>
+          <t>-5,29; 1,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-24,77; 9,22</t>
+          <t>-4,07; 2,06</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 16,0</t>
+          <t>-5,71; 1,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-32,02; 5,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,77; 1,42</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 2,16</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,0; 2,81</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-9,6%</t>
+          <t>47,06%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,81%</t>
+          <t>73,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-33,03%</t>
+          <t>136,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-23,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-4,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-19,72%</t>
+          <t>-32,19%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-17,92%</t>
+          <t>-14,84%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-2,76%</t>
+          <t>-30,24%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-25,79%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-12,93%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>9,79%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1601,84 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-65,36; 88,47</t>
+          <t>-54,82; 364,98</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-59,59; 110,6</t>
+          <t>-45,2; 454,6</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-81,01; 60,86</t>
+          <t>-24,1; 796,02</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-52,16; 27,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-37,23; 48,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,38; 33,83</t>
+          <t>-64,93; 40,66</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-44,81; 25,89</t>
+          <t>-54,04; 56,33</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-33,46; 44,22</t>
+          <t>-71,27; 49,93</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-54,85; 15,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-50,98; 53,54</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-36,87; 82,08</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-39,21; 104,93</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,99</t>
+          <t>0,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-9,02</t>
+          <t>0,97</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-7,91</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 11,27</t>
+          <t>-4,25; 4,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 13,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 7,69</t>
+          <t>-4,49; 3,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 10,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 9,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,75; 1,34</t>
+          <t>-3,15; 5,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,97; 7,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 6,74</t>
+          <t>-2,15; 8,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 0,24</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-2,52; 3,92</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,89; 4,87</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-1,4%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-11,72%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-1,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-15,62%</t>
+          <t>10,15%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-0,89%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-1,39%</t>
+          <t>27,52%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-15,57%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>5,75%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>16,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-27,11; 30,57</t>
+          <t>-51,16; 90,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,82; 37,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-32,54; 22,84</t>
+          <t>-53,29; 84,64</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 20,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,85; 18,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-31,32; 2,45</t>
+          <t>-28,47; 71,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-16,52; 17,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-16,14; 14,53</t>
+          <t>-22,13; 107,1</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-28,88; 0,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-28,6; 59,04</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-20,79; 68,73</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,86</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,97</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,25</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 2,02</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-1,4; 2,88</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 2,64</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-3,18; 1,13</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 2,14</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 3,29</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,88; 1,05</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,21; 1,94</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,37; 2,43</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>8,44%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-10,61%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-3,64%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4,94%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>-6,4%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>3,27%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>6,37%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-27,83; 40,72</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-20,02; 57,51</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-24,91; 53,01</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-30,42; 14,34</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-25,98; 27,63</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-20,73; 42,64</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-22,41; 15,89</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-14,67; 28,73</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-15,8; 35,41</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
